--- a/ConsolidatedLinkedin.xlsx
+++ b/ConsolidatedLinkedin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jolieipyingsee/Desktop/github/NPLF-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1317C66-75AC-2345-A1F4-B83677783EB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E943874A-C2B9-4142-8381-553154BF642E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="460" windowWidth="27640" windowHeight="16060" xr2:uid="{72655961-8F04-FC45-A44C-34125A6D1DF6}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16060" xr2:uid="{72655961-8F04-FC45-A44C-34125A6D1DF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Update metrics (aggregated) (2)" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="198">
   <si>
     <t>09/22/2020</t>
   </si>
@@ -623,6 +623,12 @@
   </si>
   <si>
     <t>04/01/2020</t>
+  </si>
+  <si>
+    <t>Impressions(total)</t>
+  </si>
+  <si>
+    <t>Impressions(organic)</t>
   </si>
 </sst>
 </file>
@@ -981,9 +987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20595AE5-9AA5-B449-8ED0-A3DBB6D6726C}">
   <dimension ref="A1:T93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1010,22 +1014,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>104</v>
+      <c r="A1" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>103</v>
+      <c r="A2" t="s">
+        <v>195</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>99</v>
@@ -1078,7 +1082,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1140,7 +1144,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1202,7 +1206,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1264,7 +1268,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1326,7 +1330,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1388,7 +1392,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1450,7 +1454,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1512,7 +1516,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1574,7 +1578,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1636,7 +1640,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1698,7 +1702,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1760,7 +1764,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1822,7 +1826,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1884,7 +1888,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1946,7 +1950,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2008,7 +2012,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2070,7 +2074,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2132,7 +2136,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2194,7 +2198,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2256,7 +2260,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2318,7 +2322,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2380,7 +2384,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2442,7 +2446,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2504,7 +2508,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2566,7 +2570,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2628,7 +2632,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2690,7 +2694,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2752,7 +2756,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2814,7 +2818,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2876,7 +2880,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2938,7 +2942,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3000,7 +3004,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3062,7 +3066,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3124,7 +3128,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3186,7 +3190,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3248,7 +3252,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3310,7 +3314,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B39">
         <v>34</v>
@@ -3372,7 +3376,7 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B40">
         <v>14</v>
@@ -3434,7 +3438,7 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -3496,7 +3500,7 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -3558,7 +3562,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -3620,7 +3624,7 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -3682,7 +3686,7 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -3744,7 +3748,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3806,7 +3810,7 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B47">
         <v>10</v>
@@ -3868,7 +3872,7 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3930,7 +3934,7 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3992,7 +3996,7 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B50">
         <v>16</v>
@@ -4054,7 +4058,7 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B51">
         <v>47</v>
@@ -4116,7 +4120,7 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B52">
         <v>66</v>
@@ -4178,7 +4182,7 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B53">
         <v>146</v>
@@ -4240,7 +4244,7 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B54">
         <v>112</v>
@@ -4302,7 +4306,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B55">
         <v>122</v>
@@ -4364,7 +4368,7 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B56">
         <v>59</v>
@@ -4426,7 +4430,7 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B57">
         <v>45</v>
@@ -4488,7 +4492,7 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B58">
         <v>80</v>
@@ -4550,7 +4554,7 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B59">
         <v>154</v>
@@ -4612,7 +4616,7 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B60">
         <v>152</v>
@@ -4674,7 +4678,7 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B61">
         <v>89</v>
@@ -4736,7 +4740,7 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B62">
         <v>42</v>
@@ -4798,7 +4802,7 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B63">
         <v>33</v>
@@ -4860,7 +4864,7 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B64">
         <v>38</v>
@@ -4922,7 +4926,7 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B65">
         <v>28</v>
@@ -4984,7 +4988,7 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B66">
         <v>28</v>
@@ -5046,7 +5050,7 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B67">
         <v>28</v>
@@ -5108,7 +5112,7 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B68">
         <v>22</v>
@@ -5170,7 +5174,7 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B69">
         <v>17</v>
@@ -5232,7 +5236,7 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B70">
         <v>10</v>
@@ -5294,7 +5298,7 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B71">
         <v>24</v>
@@ -5356,7 +5360,7 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B72">
         <v>16</v>
@@ -5418,7 +5422,7 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B73">
         <v>54</v>
@@ -5480,7 +5484,7 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B74">
         <v>12</v>
@@ -5542,7 +5546,7 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B75">
         <v>115</v>
@@ -5604,7 +5608,7 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B76">
         <v>36</v>
@@ -5666,7 +5670,7 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B77">
         <v>21</v>
@@ -5728,7 +5732,7 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B78">
         <v>24</v>
@@ -5790,7 +5794,7 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B79">
         <v>17</v>
@@ -5852,7 +5856,7 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B80">
         <v>24</v>
@@ -5914,7 +5918,7 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B81">
         <v>37</v>
@@ -5976,7 +5980,7 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -6038,7 +6042,7 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B83">
         <v>27</v>
@@ -6100,7 +6104,7 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B84">
         <v>13</v>
@@ -6162,7 +6166,7 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B85">
         <v>34</v>
@@ -6224,7 +6228,7 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B86">
         <v>14</v>
@@ -6286,7 +6290,7 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B87">
         <v>23</v>
@@ -6348,7 +6352,7 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B88">
         <v>59</v>
@@ -6410,7 +6414,7 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B89">
         <v>79</v>
@@ -6472,7 +6476,7 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B90">
         <v>22</v>
@@ -6534,7 +6538,7 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B91">
         <v>22</v>
@@ -6596,7 +6600,7 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B92">
         <v>27</v>
@@ -6657,9 +6661,6 @@
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
-        <v>105</v>
-      </c>
       <c r="B93">
         <v>32</v>
       </c>
